--- a/bots/crawl_ch/output/electronics_2022-08-25.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2167,48 +2167,50 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6761135</t>
+          <t>4014527</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>9.95/1ST</t>
+          <t>1.60/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2218,7 +2220,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2228,60 +2230,58 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4014527</t>
+          <t>6761135</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>4</v>
-      </c>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1.60/1ST</t>
+          <t>9.95/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2301,17 +2301,17 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3267,131 +3267,131 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>119.00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2.16/1ST</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>119.00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3599,146 +3599,146 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>3.98/1ST</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3757,12 +3757,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>3.98/1ST</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3787,12 +3787,12 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4140,7 +4140,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4264,131 +4264,131 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6007534</t>
+          <t>3494231</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB</t>
+          <t>Varta Electronics CR2025 1er Bli</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>4.95/1ST</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3494231</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
@@ -5006,24 +5006,24 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6670192</t>
+          <t>6689620</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01</t>
+          <t>Philips Bügeleisen GC1750/21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-buegeleisen-gc175021/p/6689620</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>49.90</t>
+          <t>59.90</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -5047,51 +5047,49 @@
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
+          <t>Philips Bügeleisen GC1750/21 59.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6288875</t>
+          <t>6670192</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
+          <t>Philips Wasserkocher HD9318/01</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/philips-wasserkocher-hd931801/p/6670192</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>149.00</t>
+          <t>49.90</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -5100,42 +5098,40 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 149.00 Schweizer Franken</t>
+          <t>Philips Wasserkocher HD9318/01 49.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>5764836</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Aqua W4 Wasserkocher</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-w4-wasserkocher/p/5764836</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>7</v>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -5144,7 +5140,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -5158,37 +5154,37 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>satrap Aqua W4 Wasserkocher 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>6288875</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -5197,7 +5193,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5211,35 +5207,37 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>7</v>
+      </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -5248,7 +5246,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5262,44 +5260,46 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7016089</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>69.90</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -5313,44 +5313,46 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6821480</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -5359,34 +5361,34 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>7016089</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Tefal Bügeleisen FV4961S0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -5396,12 +5398,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>69.90</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -5415,46 +5417,44 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6821480</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5468,29 +5468,29 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5519,35 +5519,37 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5556,7 +5558,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -5570,37 +5572,35 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>4</v>
-      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -5623,43 +5623,39 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5667,132 +5663,98 @@
           <t>29.95</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4</v>
+      </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>1.99/1ST</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5801,17 +5763,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5821,7 +5783,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5831,34 +5793,34 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5877,12 +5839,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5892,7 +5854,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5907,29 +5869,29 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-25 07:09:05</t>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3591272</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5948,42 +5910,184 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>3.48/1ST</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>2022-08-25 20:58:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3494067</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Varta</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
           <t>9.95</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2.49/1ST</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>2022-08-25 20:58:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3591272</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Varta Longlife Max Power D 2er Bli</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Varta</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>4.98/1ST</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>Preis pro 1 Stück</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>4.98</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="N88" t="inlineStr">
         <is>
           <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>2022-08-25 07:09:05</t>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2022-08-25 20:58:39</t>
         </is>
       </c>
     </row>
